--- a/emma_bom.xlsx
+++ b/emma_bom.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="130">
   <si>
     <t>SW Name</t>
   </si>
@@ -41,12 +41,6 @@
     <t>carriage</t>
   </si>
   <si>
-    <t>rail_assembly</t>
-  </si>
-  <si>
-    <t>turret_assembly</t>
-  </si>
-  <si>
     <t>nema17_motor</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>shaft</t>
   </si>
   <si>
-    <t>arduino_assembly</t>
-  </si>
-  <si>
     <t>32 pitch, 20˚ gear rack</t>
   </si>
   <si>
@@ -95,15 +86,9 @@
     <t>128T, 32 pitch 1" bore gear</t>
   </si>
   <si>
-    <t>Actarobotics</t>
-  </si>
-  <si>
     <t>32 pitch, 14.5˚PA  worm drive</t>
   </si>
   <si>
-    <t>Boston Gear Works</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>Igus DryLin W1040-A rail</t>
   </si>
   <si>
-    <t>Igus</t>
-  </si>
-  <si>
     <t>1/4" pin clamp</t>
   </si>
   <si>
@@ -149,36 +131,21 @@
     <t>Nema 17 stepper motor</t>
   </si>
   <si>
-    <t>Nema</t>
-  </si>
-  <si>
     <t>Nema 23 stepper motor</t>
   </si>
   <si>
     <t>Stepper Online</t>
   </si>
   <si>
-    <t>pantilt_assembly</t>
-  </si>
-  <si>
     <t>Property Name</t>
   </si>
   <si>
-    <t>Assembly</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -248,21 +215,12 @@
     <t>5mm bore 32 pitch, 16T pinion gear</t>
   </si>
   <si>
-    <t>1/4" bore 32 pitch, 16T pinion gear</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
     <t>1/4" bore 32 pitch, 20T pinion gear</t>
   </si>
   <si>
     <t>1/4" bore 32 pitch, 24T pinion gear</t>
   </si>
   <si>
-    <t>Arduino</t>
-  </si>
-  <si>
     <t>2560 R3</t>
   </si>
   <si>
@@ -290,9 +248,6 @@
     <t>S-006-025-NUT-SS</t>
   </si>
   <si>
-    <t>pinion_025_bore_16T</t>
-  </si>
-  <si>
     <t>pinion_5mm_bore_16T</t>
   </si>
   <si>
@@ -416,9 +371,6 @@
     <t>stage</t>
   </si>
   <si>
-    <t>Qty Purchase</t>
-  </si>
-  <si>
     <t>CNT</t>
   </si>
   <si>
@@ -428,22 +380,43 @@
     <t>arduino_bracket</t>
   </si>
   <si>
-    <t>pinion_025</t>
-  </si>
-  <si>
-    <t>pinion_5mm</t>
-  </si>
-  <si>
     <t>arduino_mega</t>
   </si>
   <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
     <t>Cost/Unit</t>
   </si>
   <si>
-    <t>Serial Number</t>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>QP</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>pinion_20T</t>
+  </si>
+  <si>
+    <t>pinion_24T</t>
+  </si>
+  <si>
+    <t>pinion_16T</t>
+  </si>
+  <si>
+    <t>arduino_mount</t>
+  </si>
+  <si>
+    <t>plate for Arduino</t>
+  </si>
+  <si>
+    <t>timsavas</t>
   </si>
 </sst>
 </file>
@@ -525,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -551,6 +524,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -832,7 +806,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -840,1381 +814,1214 @@
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>136</v>
+        <v>121</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="F2" s="11">
+        <v>12</v>
       </c>
       <c r="G2" s="11">
-        <v>12</v>
-      </c>
-      <c r="H2" s="11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>7.07</v>
       </c>
       <c r="I2" s="8">
+        <f t="shared" ref="I2:I13" si="0">H2*G2</f>
         <v>7.07</v>
       </c>
-      <c r="J2" s="8">
-        <f t="shared" ref="J2:J13" si="0">I2*H2</f>
-        <v>7.07</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="F3" s="11">
+        <v>10</v>
       </c>
       <c r="G3" s="11">
-        <v>10</v>
-      </c>
-      <c r="H3" s="11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>6.82</v>
       </c>
       <c r="I3" s="8">
-        <v>6.82</v>
-      </c>
-      <c r="J3" s="8">
         <f t="shared" si="0"/>
         <v>6.82</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="F4" s="11">
+        <v>8</v>
       </c>
       <c r="G4" s="11">
-        <v>8</v>
-      </c>
-      <c r="H4" s="11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2.4</v>
       </c>
       <c r="I4" s="8">
-        <v>2.4</v>
-      </c>
-      <c r="J4" s="8">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2</v>
       </c>
       <c r="G5" s="11">
-        <v>2</v>
-      </c>
-      <c r="H5" s="11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3.3</v>
       </c>
       <c r="I5" s="8">
-        <v>3.3</v>
-      </c>
-      <c r="J5" s="8">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>101</v>
+        <v>86</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2</v>
       </c>
       <c r="G6" s="11">
-        <v>2</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6.4</v>
       </c>
       <c r="I6" s="8">
-        <v>6.4</v>
-      </c>
-      <c r="J6" s="8">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="F7" s="11">
+        <v>4</v>
       </c>
       <c r="G7" s="11">
-        <v>4</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2.98</v>
       </c>
       <c r="I7" s="8">
-        <v>2.98</v>
-      </c>
-      <c r="J7" s="8">
         <f t="shared" si="0"/>
         <v>2.98</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="F8" s="11">
+        <v>8</v>
       </c>
       <c r="G8" s="11">
-        <v>8</v>
-      </c>
-      <c r="H8" s="11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3.83</v>
       </c>
       <c r="I8" s="8">
-        <v>3.83</v>
-      </c>
-      <c r="J8" s="8">
         <f t="shared" si="0"/>
         <v>3.83</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="F9" s="11">
+        <v>4</v>
       </c>
       <c r="G9" s="11">
-        <v>4</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>6.36</v>
       </c>
       <c r="I9" s="8">
-        <v>6.36</v>
-      </c>
-      <c r="J9" s="8">
         <f t="shared" si="0"/>
         <v>6.36</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="F10" s="11">
+        <v>4</v>
       </c>
       <c r="G10" s="11">
-        <v>4</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5.52</v>
       </c>
       <c r="I10" s="8">
-        <v>5.52</v>
-      </c>
-      <c r="J10" s="8">
         <f t="shared" si="0"/>
         <v>5.52</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="F11" s="11">
+        <v>4</v>
       </c>
       <c r="G11" s="11">
         <v>4</v>
       </c>
-      <c r="H11" s="11">
-        <v>4</v>
+      <c r="H11" s="8">
+        <v>1.82</v>
       </c>
       <c r="I11" s="8">
-        <v>1.82</v>
-      </c>
-      <c r="J11" s="8">
         <f t="shared" si="0"/>
         <v>7.28</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>96</v>
+        <v>81</v>
+      </c>
+      <c r="F12" s="11">
+        <v>10</v>
       </c>
       <c r="G12" s="11">
-        <v>10</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>3.98</v>
       </c>
       <c r="I12" s="8">
-        <v>3.98</v>
-      </c>
-      <c r="J12" s="8">
         <f t="shared" si="0"/>
         <v>3.98</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
       </c>
       <c r="G13" s="11">
         <v>1</v>
       </c>
-      <c r="H13" s="11">
-        <v>1</v>
+      <c r="H13" s="8">
+        <v>88.93</v>
       </c>
       <c r="I13" s="8">
-        <v>88.93</v>
-      </c>
-      <c r="J13" s="8">
         <f t="shared" si="0"/>
         <v>88.93</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3</v>
       </c>
       <c r="G14" s="11">
         <v>3</v>
       </c>
-      <c r="H14" s="11">
-        <v>3</v>
+      <c r="H14" s="8">
+        <v>33.729999999999997</v>
       </c>
       <c r="I14" s="8">
-        <v>33.729999999999997</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" ref="J14:J29" si="1">I14*H14</f>
+        <f t="shared" ref="I14:I28" si="1">H14*G14</f>
         <v>101.19</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2</v>
       </c>
       <c r="G15" s="11">
         <v>2</v>
       </c>
-      <c r="H15" s="11">
-        <v>2</v>
+      <c r="H15" s="8">
+        <v>13.99</v>
       </c>
       <c r="I15" s="8">
-        <v>13.99</v>
-      </c>
-      <c r="J15" s="8">
         <f t="shared" si="1"/>
         <v>27.98</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
       </c>
-      <c r="H16" s="11">
-        <v>1</v>
+      <c r="H16" s="8">
+        <v>16</v>
       </c>
       <c r="I16" s="8">
-        <v>16</v>
-      </c>
-      <c r="J16" s="8">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2</v>
       </c>
       <c r="G17" s="11">
         <v>2</v>
       </c>
-      <c r="H17" s="11">
-        <v>2</v>
+      <c r="H17" s="8">
+        <v>7.99</v>
       </c>
       <c r="I17" s="8">
-        <v>7.99</v>
-      </c>
-      <c r="J17" s="8">
         <f t="shared" si="1"/>
         <v>15.98</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="13">
+      <c r="J17" s="13">
         <v>545588</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K17" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
       </c>
-      <c r="H18" s="11">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="H18" s="4">
         <v>4.2</v>
       </c>
-      <c r="J18" s="8">
+      <c r="I18" s="8">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
       </c>
-      <c r="H19" s="11">
-        <v>1</v>
+      <c r="H19" s="8">
+        <v>38.5</v>
       </c>
       <c r="I19" s="8">
-        <v>38.5</v>
-      </c>
-      <c r="J19" s="8">
         <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J19" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
       </c>
-      <c r="H20" s="11">
-        <v>1</v>
+      <c r="H20" s="8">
+        <v>23.84</v>
       </c>
       <c r="I20" s="8">
-        <v>23.84</v>
-      </c>
-      <c r="J20" s="8">
         <f t="shared" si="1"/>
         <v>23.84</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J20" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
       </c>
       <c r="G21" s="11">
         <v>1</v>
       </c>
-      <c r="H21" s="11">
-        <v>1</v>
+      <c r="H21" s="8">
+        <v>16.989999999999998</v>
       </c>
       <c r="I21" s="8">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="J21" s="8">
         <f t="shared" si="1"/>
         <v>16.989999999999998</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="13">
+      <c r="J21" s="13">
         <v>615238</v>
       </c>
-      <c r="M21" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
       </c>
-      <c r="H22" s="11">
-        <v>1</v>
+      <c r="H22" s="8">
+        <v>5.99</v>
       </c>
       <c r="I22" s="8">
-        <v>5.99</v>
-      </c>
-      <c r="J22" s="8">
         <f t="shared" si="1"/>
         <v>5.99</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="13">
+      <c r="J22" s="13">
         <v>545354</v>
       </c>
-      <c r="M22" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2</v>
       </c>
       <c r="G23" s="11">
         <v>2</v>
       </c>
-      <c r="H23" s="11">
-        <v>2</v>
+      <c r="H23" s="8">
+        <v>6.48</v>
       </c>
       <c r="I23" s="8">
-        <v>6.48</v>
-      </c>
-      <c r="J23" s="8">
         <f t="shared" si="1"/>
         <v>12.96</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="13">
+      <c r="J23" s="13">
         <v>535051</v>
       </c>
-      <c r="M23" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K23" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
       </c>
-      <c r="H24" s="11">
-        <v>1</v>
+      <c r="H24" s="8">
+        <v>4.49</v>
       </c>
       <c r="I24" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="J24" s="8">
         <f t="shared" si="1"/>
         <v>4.49</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="13">
+      <c r="J24" s="13">
         <v>635166</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>73</v>
+        <v>61</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1</v>
       </c>
       <c r="G25" s="11">
         <v>1</v>
       </c>
-      <c r="H25" s="11">
-        <v>1</v>
+      <c r="H25" s="8">
+        <v>7.99</v>
       </c>
       <c r="I25" s="8">
-        <v>7.99</v>
-      </c>
-      <c r="J25" s="8">
         <f t="shared" si="1"/>
         <v>7.99</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" s="13">
-        <v>615242</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J25" s="13">
+        <v>615342</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1</v>
       </c>
       <c r="G26" s="11">
         <v>1</v>
       </c>
-      <c r="H26" s="11">
-        <v>1</v>
+      <c r="H26" s="8">
+        <v>7.99</v>
       </c>
       <c r="I26" s="8">
-        <v>7.99</v>
-      </c>
-      <c r="J26" s="8">
         <f t="shared" si="1"/>
         <v>7.99</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="13">
-        <v>615342</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J26" s="13">
+        <v>615246</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1</v>
       </c>
       <c r="G27" s="11">
         <v>1</v>
       </c>
-      <c r="H27" s="11">
-        <v>1</v>
+      <c r="H27" s="8">
+        <v>7.99</v>
       </c>
       <c r="I27" s="8">
-        <v>7.99</v>
-      </c>
-      <c r="J27" s="8">
         <f t="shared" si="1"/>
         <v>7.99</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="13">
-        <v>615246</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J27" s="13">
+        <v>615250</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1</v>
       </c>
       <c r="G28" s="11">
         <v>1</v>
       </c>
-      <c r="H28" s="11">
-        <v>1</v>
+      <c r="H28" s="8">
+        <v>45.95</v>
       </c>
       <c r="I28" s="8">
-        <v>7.99</v>
-      </c>
-      <c r="J28" s="8">
         <f t="shared" si="1"/>
-        <v>7.99</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" s="13">
-        <v>615250</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>45.95</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>82</v>
+        <v>32</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1</v>
       </c>
       <c r="G29" s="11">
         <v>1</v>
       </c>
-      <c r="H29" s="11">
-        <v>1</v>
-      </c>
-      <c r="I29" s="8">
-        <v>45.95</v>
-      </c>
-      <c r="J29" s="8">
-        <f t="shared" si="1"/>
-        <v>45.95</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>38</v>
+        <v>107</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2</v>
       </c>
       <c r="G30" s="11">
-        <v>1</v>
-      </c>
-      <c r="H30" s="11">
-        <v>1</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>122</v>
+        <v>108</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1</v>
       </c>
       <c r="G31" s="11">
-        <v>2</v>
-      </c>
-      <c r="H31" s="11">
-        <v>2</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G32" s="11">
-        <v>1</v>
-      </c>
-      <c r="H32" s="11">
-        <v>1</v>
-      </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I32" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>124</v>
+        <v>110</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1</v>
       </c>
       <c r="G33" s="11">
         <v>1</v>
       </c>
-      <c r="H33" s="11">
-        <v>1</v>
-      </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H33" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>125</v>
+        <v>111</v>
+      </c>
+      <c r="F34" s="11">
+        <v>2</v>
       </c>
       <c r="G34" s="11">
-        <v>1</v>
-      </c>
-      <c r="H34" s="11">
-        <v>1</v>
-      </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>121</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" s="11">
-        <v>2</v>
-      </c>
-      <c r="H35" s="11">
-        <v>2</v>
-      </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8">
-        <f>SUM(J2:J29)</f>
-        <v>490.90000000000003</v>
-      </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2"/>
+        <v>128</v>
+      </c>
+      <c r="F35" s="11">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I36" s="8">
+        <f>SUM(I2:I28)</f>
+        <v>482.91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2"/>
     <row r="49" x14ac:dyDescent="0.2"/>
     <row r="50" x14ac:dyDescent="0.2"/>
     <row r="51" x14ac:dyDescent="0.2"/>
@@ -2230,37 +2037,42 @@
     <row r="61" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="A1:L38">
-    <sortCondition ref="E1:E38"/>
+    <sortCondition ref="D1:D38"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="M14" r:id="rId1" location="7854k13/=11zh186"/>
-    <hyperlink ref="M21" r:id="rId2"/>
-    <hyperlink ref="M20" r:id="rId3" display="amazon"/>
-    <hyperlink ref="M19" r:id="rId4"/>
-    <hyperlink ref="M13" r:id="rId5"/>
-    <hyperlink ref="M18" r:id="rId6" location="6061k411/=11zh5xh"/>
-    <hyperlink ref="M17" r:id="rId7" location="348=95"/>
-    <hyperlink ref="M22" r:id="rId8"/>
-    <hyperlink ref="M24" r:id="rId9" location="371=277"/>
-    <hyperlink ref="M23" r:id="rId10" display="Actarobotics"/>
-    <hyperlink ref="M15" r:id="rId11"/>
-    <hyperlink ref="M16" r:id="rId12"/>
-    <hyperlink ref="M2" r:id="rId13" location="91292a145/=14lzef6"/>
-    <hyperlink ref="M3" r:id="rId14" location="92196a057/=14lzf2m"/>
-    <hyperlink ref="M4" r:id="rId15" location="92185a147/=14lzfy5"/>
-    <hyperlink ref="M5" r:id="rId16" location="91292a033/=14lzgz9"/>
-    <hyperlink ref="M7" r:id="rId17" location="92185a149/=14lzi6u"/>
-    <hyperlink ref="M9" r:id="rId18" location="92196a152/=14lzij4"/>
-    <hyperlink ref="M10" r:id="rId19" location="92290a118/=14lzjgg"/>
-    <hyperlink ref="M26" r:id="rId20"/>
-    <hyperlink ref="M25" r:id="rId21" location="199=100"/>
-    <hyperlink ref="M27" r:id="rId22" location="199=285"/>
-    <hyperlink ref="M28" r:id="rId23" location="199=101"/>
-    <hyperlink ref="M29" r:id="rId24"/>
-    <hyperlink ref="M8" r:id="rId25" location="90730a007/=14lzqvj"/>
-    <hyperlink ref="M11" r:id="rId26" location="91075a101/=14lzx47"/>
-    <hyperlink ref="M12" r:id="rId27" location="92196a108/=14lzyod"/>
-    <hyperlink ref="M6" r:id="rId28" location="91292a020/=14m02hf"/>
+    <hyperlink ref="K14" r:id="rId1" location="7854k13/=11zh186"/>
+    <hyperlink ref="K21" r:id="rId2" location="199=86"/>
+    <hyperlink ref="K20" r:id="rId3" display="amazon"/>
+    <hyperlink ref="K19" r:id="rId4"/>
+    <hyperlink ref="K13" r:id="rId5"/>
+    <hyperlink ref="K18" r:id="rId6" location="6061k411/=11zh5xh"/>
+    <hyperlink ref="K17" r:id="rId7" location="348=95"/>
+    <hyperlink ref="K22" r:id="rId8"/>
+    <hyperlink ref="K24" r:id="rId9" location="371=277"/>
+    <hyperlink ref="K23" r:id="rId10" display="Actarobotics"/>
+    <hyperlink ref="K15" r:id="rId11"/>
+    <hyperlink ref="K16" r:id="rId12"/>
+    <hyperlink ref="K2" r:id="rId13" location="91292a145/=14lzef6"/>
+    <hyperlink ref="K3" r:id="rId14" location="92196a057/=14lzf2m"/>
+    <hyperlink ref="K4" r:id="rId15" location="92185a147/=14lzfy5"/>
+    <hyperlink ref="K5" r:id="rId16" location="91292a033/=14lzgz9"/>
+    <hyperlink ref="K7" r:id="rId17" location="92185a149/=14lzi6u"/>
+    <hyperlink ref="K9" r:id="rId18" location="92196a152/=14lzij4"/>
+    <hyperlink ref="K10" r:id="rId19" location="92290a118/=14lzjgg"/>
+    <hyperlink ref="K25" r:id="rId20"/>
+    <hyperlink ref="K26" r:id="rId21" location="199=285"/>
+    <hyperlink ref="K27" r:id="rId22" location="199=101"/>
+    <hyperlink ref="K28" r:id="rId23"/>
+    <hyperlink ref="K8" r:id="rId24" location="90730a007/=14lzqvj"/>
+    <hyperlink ref="K11" r:id="rId25" location="91075a101/=14lzx47"/>
+    <hyperlink ref="K12" r:id="rId26" location="92196a108/=14lzyod"/>
+    <hyperlink ref="K6" r:id="rId27" location="91292a020/=14m02hf"/>
+    <hyperlink ref="K35" r:id="rId28"/>
+    <hyperlink ref="K34" r:id="rId29"/>
+    <hyperlink ref="K29" r:id="rId30"/>
+    <hyperlink ref="K30" r:id="rId31"/>
+    <hyperlink ref="K31" r:id="rId32"/>
+    <hyperlink ref="K33" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/emma_bom.xlsx
+++ b/emma_bom.xlsx
@@ -806,7 +806,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -822,7 +822,7 @@
     <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="16" width="0" hidden="1" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
